--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_25.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_25.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_9</t>
+          <t>model_1_25_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9900857319178338</v>
+        <v>0.9227035900390849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7307589756480046</v>
+        <v>0.7275599246516987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7118328690756488</v>
+        <v>0.6166927214890042</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9707003145571755</v>
+        <v>0.932496474060249</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04160806225549672</v>
+        <v>0.3243964971620397</v>
       </c>
       <c r="G2" t="n">
-        <v>1.800415969582715</v>
+        <v>1.821808038325289</v>
       </c>
       <c r="H2" t="n">
-        <v>1.03075711842612</v>
+        <v>1.37106790980083</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02610237706750295</v>
+        <v>0.1463912965537504</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4186250392051701</v>
+        <v>1.874201696216673</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2039805438160628</v>
+        <v>0.5695581595956989</v>
       </c>
       <c r="L2" t="n">
-        <v>1.005803473999317</v>
+        <v>0.7349837372768624</v>
       </c>
       <c r="M2" t="n">
-        <v>0.212664417864249</v>
+        <v>0.5938054295976152</v>
       </c>
       <c r="N2" t="n">
-        <v>136.3589226525477</v>
+        <v>36.25157750939342</v>
       </c>
       <c r="O2" t="n">
-        <v>215.5858512689808</v>
+        <v>56.97246653215283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_8</t>
+          <t>model_1_25_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9899735854781683</v>
+        <v>0.9227122563250518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7306410914511876</v>
+        <v>0.7275567958556719</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7115774633805834</v>
+        <v>0.6170896211662066</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9722006699306978</v>
+        <v>0.9306217460253967</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04207871687212204</v>
+        <v>0.3243601266137504</v>
       </c>
       <c r="G3" t="n">
-        <v>1.801204261749637</v>
+        <v>1.821828960598726</v>
       </c>
       <c r="H3" t="n">
-        <v>1.031670689788097</v>
+        <v>1.369648222669043</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02476574696028375</v>
+        <v>0.1504569192584464</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4178427443599434</v>
+        <v>1.876944060389108</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2051309749212001</v>
+        <v>0.5695262299611409</v>
       </c>
       <c r="L3" t="n">
-        <v>1.005869120695706</v>
+        <v>0.7350134502573206</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2138638252032527</v>
+        <v>0.5937721406524106</v>
       </c>
       <c r="N3" t="n">
-        <v>136.3364264072005</v>
+        <v>36.25180175711279</v>
       </c>
       <c r="O3" t="n">
-        <v>215.5633550236335</v>
+        <v>56.9726907798722</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9898516490333831</v>
+        <v>0.9226872272872151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7305230006830228</v>
+        <v>0.7275419331363735</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7113071131043146</v>
+        <v>0.6162881223434011</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9735554541117305</v>
+        <v>0.9343374540824192</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0425904580459323</v>
+        <v>0.3244651681312761</v>
       </c>
       <c r="G4" t="n">
-        <v>1.801993935260114</v>
+        <v>1.821928347671112</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0326377170505</v>
+        <v>1.372515137484646</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02355880268754019</v>
+        <v>0.1423988613642821</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4169325268653516</v>
+        <v>1.871471480132277</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2063745576516938</v>
+        <v>0.5696184408279599</v>
       </c>
       <c r="L4" t="n">
-        <v>1.0059404981268</v>
+        <v>0.7349276364133088</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2151603498251547</v>
+        <v>0.593868277126733</v>
       </c>
       <c r="N4" t="n">
-        <v>136.3122500806566</v>
+        <v>36.25115417743738</v>
       </c>
       <c r="O4" t="n">
-        <v>215.5391786970897</v>
+        <v>56.97204320019679</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.989719989307326</v>
+        <v>0.9226623719023759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7304047311979072</v>
+        <v>0.7275043503148613</v>
       </c>
       <c r="D5" t="n">
-        <v>0.711021609298583</v>
+        <v>0.6158730553866305</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9747654084265487</v>
+        <v>0.9361410048119061</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04314300575121179</v>
+        <v>0.3245694808643192</v>
       </c>
       <c r="G5" t="n">
-        <v>1.802784803851663</v>
+        <v>1.822179664171617</v>
       </c>
       <c r="H5" t="n">
-        <v>1.03365894760914</v>
+        <v>1.37399980792205</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0224808838197262</v>
+        <v>0.1384875970856473</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4158892884581941</v>
+        <v>1.868756634442946</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2077089448030869</v>
+        <v>0.5697099971602387</v>
       </c>
       <c r="L5" t="n">
-        <v>1.006017567234736</v>
+        <v>0.734842417951003</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2165515446001447</v>
+        <v>0.5939637312016245</v>
       </c>
       <c r="N5" t="n">
-        <v>136.286469932208</v>
+        <v>36.25051129814517</v>
       </c>
       <c r="O5" t="n">
-        <v>215.513398548641</v>
+        <v>56.97140032090458</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9895784627821687</v>
+        <v>0.9226293395022582</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7302862899118294</v>
+        <v>0.7274490492517807</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7107206356842561</v>
+        <v>0.6154490105869456</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9758315068683228</v>
+        <v>0.9379083309435748</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04373696230158401</v>
+        <v>0.3247081107812382</v>
       </c>
       <c r="G6" t="n">
-        <v>1.803576821277037</v>
+        <v>1.822549462635075</v>
       </c>
       <c r="H6" t="n">
-        <v>1.034735512776134</v>
+        <v>1.375516591582993</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02153112265001781</v>
+        <v>0.1346548911603416</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4147106870218784</v>
+        <v>1.866056032631927</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2091338382509727</v>
+        <v>0.5698316512631062</v>
       </c>
       <c r="L6" t="n">
-        <v>1.00610041202995</v>
+        <v>0.7347291640077425</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2180370987120431</v>
+        <v>0.5940905643715098</v>
       </c>
       <c r="N6" t="n">
-        <v>136.2591234302518</v>
+        <v>36.24965724175506</v>
       </c>
       <c r="O6" t="n">
-        <v>215.4860520466849</v>
+        <v>56.97054626451447</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9894271556025187</v>
+        <v>0.9225882559525047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7301678823971793</v>
+        <v>0.7273777247425655</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7104043695282718</v>
+        <v>0.6150172360970011</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9767553422422039</v>
+        <v>0.9396426563458848</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04437196616655961</v>
+        <v>0.3248805296508566</v>
       </c>
       <c r="G7" t="n">
-        <v>1.804368612872719</v>
+        <v>1.823026409956616</v>
       </c>
       <c r="H7" t="n">
-        <v>1.035866778477925</v>
+        <v>1.3770610238978</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02070810018704971</v>
+        <v>0.1308937521567752</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4133940095106771</v>
+        <v>1.863378238867213</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2106465432105631</v>
+        <v>0.5699829204904798</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006188982086331</v>
+        <v>0.7345883061228733</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2196142026534942</v>
+        <v>0.5942482734430632</v>
       </c>
       <c r="N7" t="n">
-        <v>136.2302948032026</v>
+        <v>36.24859553061705</v>
       </c>
       <c r="O7" t="n">
-        <v>215.4572234196356</v>
+        <v>56.96948455337646</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9892660007807208</v>
+        <v>0.92253811391275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7300495354597429</v>
+        <v>0.7272907493577692</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7100723521340788</v>
+        <v>0.6145734516459321</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9775383691741689</v>
+        <v>0.9413370243508166</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04504829847899724</v>
+        <v>0.3250909650651951</v>
       </c>
       <c r="G8" t="n">
-        <v>1.805159999388293</v>
+        <v>1.823608014755234</v>
       </c>
       <c r="H8" t="n">
-        <v>1.037054385445479</v>
+        <v>1.378648415147173</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02001052053992197</v>
+        <v>0.1272192666298629</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4119347635065518</v>
+        <v>1.86071412043464</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2122458444328116</v>
+        <v>0.5701674886076855</v>
       </c>
       <c r="L8" t="n">
-        <v>1.006283316616163</v>
+        <v>0.7344163905579999</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2212815894397837</v>
+        <v>0.5944406990071269</v>
       </c>
       <c r="N8" t="n">
-        <v>136.2000401305054</v>
+        <v>36.24730048661341</v>
       </c>
       <c r="O8" t="n">
-        <v>215.4269687469384</v>
+        <v>56.96818950937282</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9890949650485299</v>
+        <v>0.9224791658408475</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7299312473041772</v>
+        <v>0.7271894187131416</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7097247094403665</v>
+        <v>0.6141189170716255</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9781817569380777</v>
+        <v>0.9429935211095142</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04576609885860497</v>
+        <v>0.3253383575126484</v>
       </c>
       <c r="G9" t="n">
-        <v>1.805950992829228</v>
+        <v>1.824285613242444</v>
       </c>
       <c r="H9" t="n">
-        <v>1.038297883203406</v>
+        <v>1.380274258964039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01943734203099431</v>
+        <v>0.1236269104548793</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4103344360219381</v>
+        <v>1.858786013452181</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2139301261127216</v>
+        <v>0.5703843945206148</v>
       </c>
       <c r="L9" t="n">
-        <v>1.006383435093543</v>
+        <v>0.7342142828829059</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2230375744777513</v>
+        <v>0.5946668390538269</v>
       </c>
       <c r="N9" t="n">
-        <v>136.1684233230775</v>
+        <v>36.24577907636455</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3953519395106</v>
+        <v>56.96666809912396</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9889140720880343</v>
+        <v>0.9224112508387472</v>
       </c>
       <c r="C10" t="n">
-        <v>0.729813199231751</v>
+        <v>0.7270744665028159</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7093611301597564</v>
+        <v>0.6136529768585238</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9786877525586204</v>
+        <v>0.9446120182112956</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04652526791672473</v>
+        <v>0.3256233822479142</v>
       </c>
       <c r="G10" t="n">
-        <v>1.806740380833103</v>
+        <v>1.825054299202197</v>
       </c>
       <c r="H10" t="n">
-        <v>1.039598385208611</v>
+        <v>1.381940900089538</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01898656284062788</v>
+        <v>0.1201169621092221</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4085860806879689</v>
+        <v>1.857829193516741</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2156971671504397</v>
+        <v>0.5706341930237919</v>
       </c>
       <c r="L10" t="n">
-        <v>1.006489323655785</v>
+        <v>0.7339814314471333</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2248798421107243</v>
+        <v>0.5949272719964384</v>
       </c>
       <c r="N10" t="n">
-        <v>136.1355194358328</v>
+        <v>36.2440276692629</v>
       </c>
       <c r="O10" t="n">
-        <v>215.3624480522658</v>
+        <v>56.96491669202231</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9887233798540522</v>
+        <v>0.9223340168932717</v>
       </c>
       <c r="C11" t="n">
-        <v>0.729695386242598</v>
+        <v>0.7269465235855475</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7089821184054659</v>
+        <v>0.6131752451597055</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9790579787517436</v>
+        <v>0.9461909086671155</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04732556242938131</v>
+        <v>0.3259475165949939</v>
       </c>
       <c r="G11" t="n">
-        <v>1.807528196834048</v>
+        <v>1.825909854079094</v>
       </c>
       <c r="H11" t="n">
-        <v>1.040954088277343</v>
+        <v>1.383649718675736</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01865673733065692</v>
+        <v>0.1166929065843283</v>
       </c>
       <c r="J11" t="n">
-        <v>0.406685788113415</v>
+        <v>1.856913612690737</v>
       </c>
       <c r="K11" t="n">
-        <v>0.217544391859182</v>
+        <v>0.5709181347575096</v>
       </c>
       <c r="L11" t="n">
-        <v>1.006600948378116</v>
+        <v>0.7337166293483599</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2268057069996</v>
+        <v>0.5952233017176009</v>
       </c>
       <c r="N11" t="n">
-        <v>136.1014093951083</v>
+        <v>36.24203780523187</v>
       </c>
       <c r="O11" t="n">
-        <v>215.3283380115414</v>
+        <v>56.96292682799128</v>
       </c>
     </row>
   </sheetData>
